--- a/Sensitivity Analysis/M_Output.xlsx
+++ b/Sensitivity Analysis/M_Output.xlsx
@@ -516,19 +516,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1345.346801757812</v>
+        <v>1335.346801757812</v>
       </c>
       <c r="C4">
-        <v>1735.346801757812</v>
+        <v>1733.682144245353</v>
       </c>
       <c r="D4">
         <v>1735.346801757812</v>
       </c>
       <c r="E4">
-        <v>1702.556936324731</v>
+        <v>1722.556936324731</v>
       </c>
       <c r="F4">
-        <v>1569.423833204093</v>
+        <v>1589.423833204093</v>
       </c>
       <c r="G4">
         <v>1383.795628456976</v>
@@ -718,16 +718,16 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>450</v>
+        <v>507.5474853515625</v>
       </c>
       <c r="C4">
-        <v>450</v>
+        <v>507.5474853515625</v>
       </c>
       <c r="D4">
-        <v>450</v>
+        <v>507.5474853515625</v>
       </c>
       <c r="E4">
-        <v>129.2717827690972</v>
+        <v>151.4940049913195</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -745,13 +745,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>450</v>
+        <v>57.5474853515625</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -759,19 +759,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>275.1150580512153</v>
+        <v>917.9509549852844</v>
       </c>
       <c r="C5">
-        <v>633.9499579535591</v>
+        <v>683.1792264696594</v>
       </c>
       <c r="D5">
-        <v>437.2363620334202</v>
+        <v>464.2434083272818</v>
       </c>
       <c r="E5">
-        <v>240.8991495768229</v>
+        <v>285.3435940212673</v>
       </c>
       <c r="F5">
-        <v>44.05127631293403</v>
+        <v>66.27349853515625</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>47.08149169661867</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>47.08149169661867</v>
       </c>
       <c r="L5">
-        <v>275.1150580512153</v>
+        <v>138.5170306379854</v>
       </c>
       <c r="M5">
-        <v>275.1150580512153</v>
+        <v>322.1464505907531</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -800,34 +800,34 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>154.1477310115676</v>
+        <v>145.1477310115677</v>
       </c>
       <c r="C6">
-        <v>243.0523904250648</v>
+        <v>344.1485855037552</v>
       </c>
       <c r="D6">
-        <v>456.3394540236976</v>
+        <v>344.1485855037552</v>
       </c>
       <c r="E6">
-        <v>456.3394540236976</v>
+        <v>552.998408501802</v>
       </c>
       <c r="F6">
-        <v>673.8790505813148</v>
+        <v>555.2418128819494</v>
       </c>
       <c r="G6">
-        <v>747.1981129209007</v>
+        <v>628.5608752215353</v>
       </c>
       <c r="H6">
-        <v>881.1136250058616</v>
+        <v>891.8459856951683</v>
       </c>
       <c r="I6">
-        <v>559.7405826519841</v>
+        <v>548.2507211190685</v>
       </c>
       <c r="J6">
-        <v>243.8357816718046</v>
+        <v>210.1236979166667</v>
       </c>
       <c r="K6">
-        <v>55.9343059773601</v>
+        <v>3.441691376337985E-15</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -926,10 +926,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>288.6553955078125</v>
+        <v>320.4481323242187</v>
       </c>
       <c r="E4">
-        <v>116.3446044921875</v>
+        <v>136.3446044921875</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -961,19 +961,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>211.2945556640625</v>
       </c>
       <c r="C5">
-        <v>177.042236328125</v>
+        <v>197.0422363281398</v>
       </c>
       <c r="D5">
-        <v>176.7034912109375</v>
+        <v>161.0098328754131</v>
       </c>
       <c r="E5">
-        <v>177.1630859375</v>
+        <v>197.1630859375</v>
       </c>
       <c r="F5">
-        <v>39.64614868164062</v>
+        <v>59.64614868164062</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>289.2357381184898</v>
+        <v>309.2357381184898</v>
       </c>
       <c r="I6">
-        <v>284.3143208821617</v>
+        <v>304.3143208821617</v>
       </c>
       <c r="J6">
-        <v>169.111328125</v>
+        <v>189.111328125</v>
       </c>
       <c r="K6">
-        <v>50.34087537962409</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1146,16 +1146,16 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>63.941650390625</v>
+      </c>
+      <c r="M4">
         <v>500</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1163,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>398.7054443359375</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>52.31276855179852</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>305.6833978346837</v>
+        <v>101.5950432681852</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>204.0326888364086</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>662.0050048828125</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1204,22 +1204,22 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>98.78295490388578</v>
+        <v>221.112060546875</v>
       </c>
       <c r="C6">
-        <v>236.9856262207031</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>232.0553588867188</v>
       </c>
       <c r="E6">
-        <v>241.7106628417969</v>
+        <v>2.492671533497067</v>
       </c>
       <c r="F6">
         <v>81.46562482176211</v>
       </c>
       <c r="G6">
-        <v>148.7950134277343</v>
+        <v>292.5390116373701</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>8.881784197001252E-16</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>171.2752566795195</v>
+        <v>161.2752566795195</v>
       </c>
     </row>
   </sheetData>
@@ -1324,40 +1324,40 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2193.175982459562</v>
+        <v>2272.160241009163</v>
       </c>
       <c r="C4">
-        <v>1553.831364404006</v>
+        <v>1610.593400731385</v>
       </c>
       <c r="D4">
-        <v>985.8782122772711</v>
+        <v>1020.418026382428</v>
       </c>
       <c r="E4">
-        <v>985.8782122772711</v>
+        <v>1020.418026382428</v>
       </c>
       <c r="F4">
-        <v>264.8624708268726</v>
+        <v>242.6402486046504</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>40.78683931197286</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>308.3124818936644</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>739.1370838119315</v>
+        <v>143.6844266775448</v>
       </c>
       <c r="K4">
-        <v>881.8141042344882</v>
+        <v>665.1890288140361</v>
       </c>
       <c r="L4">
-        <v>1338.55246491584</v>
+        <v>1289.28721425467</v>
       </c>
       <c r="M4">
-        <v>1750.302955705069</v>
+        <v>1919.28721425467</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1365,40 +1365,40 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1480.701063492229</v>
+        <v>2400</v>
       </c>
       <c r="C5">
-        <v>1754.038160660197</v>
+        <v>1749.253336588542</v>
       </c>
       <c r="D5">
-        <v>1147.735941693184</v>
+        <v>1154.062228732655</v>
       </c>
       <c r="E5">
-        <v>596.9892782817252</v>
+        <v>574.767056059503</v>
       </c>
       <c r="F5">
-        <v>101.7981704258225</v>
+        <v>90.68705931471136</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>231.3470030233449</v>
       </c>
       <c r="I5">
-        <v>258.5551757400095</v>
+        <v>492.2592216626465</v>
       </c>
       <c r="J5">
-        <v>353.3406649285955</v>
+        <v>655.6440066738173</v>
       </c>
       <c r="K5">
-        <v>353.3406649285955</v>
+        <v>1195.644006673817</v>
       </c>
       <c r="L5">
-        <v>484.6611458187468</v>
+        <v>1735.644006673817</v>
       </c>
       <c r="M5">
-        <v>985.5405657715146</v>
+        <v>2275.644006673817</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1406,40 +1406,40 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>37.93383308790376</v>
+        <v>110.8764692935616</v>
       </c>
       <c r="C6">
-        <v>292.2003162525316</v>
+        <v>246.046757379499</v>
       </c>
       <c r="D6">
-        <v>292.2003162525316</v>
+        <v>457.8356292169186</v>
       </c>
       <c r="E6">
-        <v>550.716032805266</v>
+        <v>507.5015227716061</v>
       </c>
       <c r="F6">
-        <v>636.3819263599535</v>
+        <v>808.4636085037633</v>
       </c>
       <c r="G6">
-        <v>1086.381926359953</v>
+        <v>1258.463608503763</v>
       </c>
       <c r="H6">
-        <v>1536.381926359953</v>
+        <v>1570.094010115092</v>
       </c>
       <c r="I6">
-        <v>1010.7016104239</v>
+        <v>1055.52480529015</v>
       </c>
       <c r="J6">
-        <v>485.0212944878472</v>
+        <v>540.9556004652073</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>67.04541708847125</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>37.93383308790376</v>
+        <v>110.8764692935616</v>
       </c>
     </row>
   </sheetData>
@@ -1526,19 +1526,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>575.41015625</v>
+        <v>595.41015625</v>
       </c>
       <c r="C4">
-        <v>511.1578369140611</v>
+        <v>531.1578369140611</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>648.9141673053587</v>
+        <v>700</v>
       </c>
       <c r="F4">
-        <v>238.3762237441891</v>
+        <v>218.3762237441891</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1567,19 +1567,19 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>585.6719970703125</v>
       </c>
       <c r="C5">
-        <v>545.6719970703125</v>
+        <v>535.6719970702978</v>
       </c>
       <c r="D5">
-        <v>495.6719970703125</v>
+        <v>521.3656554058369</v>
       </c>
       <c r="E5">
-        <v>445.6719970703125</v>
+        <v>435.6719970703125</v>
       </c>
       <c r="F5">
-        <v>91.61835338324022</v>
+        <v>81.61835338324022</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1626,16 +1626,16 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>473.1122843424478</v>
+        <v>463.1122843424478</v>
       </c>
       <c r="I6">
-        <v>473.1122843424478</v>
+        <v>463.1122843424478</v>
       </c>
       <c r="J6">
-        <v>436.5191650390625</v>
+        <v>426.5191650390625</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>60.34087537962411</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1743,25 +1743,25 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>45.31871034664118</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>297.2507139796572</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>478.6940021314078</v>
+        <v>159.6493629750544</v>
       </c>
       <c r="J4">
-        <v>158.5300226917298</v>
+        <v>579.4495579294347</v>
       </c>
       <c r="K4">
-        <v>507.4870674237243</v>
+        <v>693.4424282673708</v>
       </c>
       <c r="L4">
-        <v>457.5005453213649</v>
+        <v>700</v>
       </c>
       <c r="M4">
-        <v>492.0811408383254</v>
+        <v>392.0811408383254</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1769,7 +1769,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>303.7078857421875</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1784,25 +1784,25 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>257.0522255814944</v>
       </c>
       <c r="H5">
-        <v>287.2835286000106</v>
+        <v>289.9024651547794</v>
       </c>
       <c r="I5">
-        <v>105.3172102095399</v>
+        <v>181.538650012412</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="K5">
-        <v>145.9116454335015</v>
+        <v>600</v>
       </c>
       <c r="L5">
-        <v>556.5326888364086</v>
+        <v>600</v>
       </c>
       <c r="M5">
-        <v>550.1783308007934</v>
+        <v>138.1733259179809</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1810,22 +1810,22 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>282.5183146273642</v>
+        <v>150.1892089843749</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>235.320968708244</v>
       </c>
       <c r="D6">
-        <v>287.2396850585938</v>
+        <v>55.184326171875</v>
       </c>
       <c r="E6">
-        <v>95.184326171875</v>
+        <v>334.4023174801748</v>
       </c>
       <c r="F6">
         <v>500</v>
       </c>
       <c r="G6">
-        <v>500</v>
+        <v>346.2560017903643</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1840,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>42.14870343100418</v>
+        <v>123.1960769928462</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -2012,7 +2012,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2229,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2443,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -2618,22 +2618,22 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -2759,22 +2759,22 @@
         <v>200.0000000000014</v>
       </c>
       <c r="H4">
-        <v>200</v>
+        <v>150.0000000000014</v>
       </c>
       <c r="I4">
-        <v>200</v>
+        <v>100.0000000000014</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>150</v>
       </c>
       <c r="L4">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M4">
-        <v>150</v>
+        <v>167.9857442256136</v>
       </c>
       <c r="N4">
         <v>200</v>
@@ -2795,7 +2795,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>301.79443359375</v>
+        <v>230.7086008991087</v>
       </c>
       <c r="G5">
         <v>391.3803100585938</v>
@@ -2854,16 +2854,16 @@
         <v>50</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N6">
-        <v>150</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -2887,7 +2887,7 @@
         <v>350.5338033040364</v>
       </c>
       <c r="H7">
-        <v>93.60051427731082</v>
+        <v>350.5338033040364</v>
       </c>
       <c r="I7">
         <v>350.5338033040364</v>
@@ -2988,7 +2988,7 @@
         <v>182.84912109375</v>
       </c>
       <c r="M9">
-        <v>91.80174753190798</v>
+        <v>182.84912109375</v>
       </c>
       <c r="N9">
         <v>182.84912109375</v>
@@ -3122,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3190,13 +3190,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3324,7 +3324,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -3365,22 +3365,22 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -3392,13 +3392,13 @@
         <v>1</v>
       </c>
       <c r="K6">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3491,40 +3491,40 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="D4">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="E4">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="F4">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>381.197509765625</v>
+        <v>400</v>
       </c>
       <c r="H4">
-        <v>278.697509765625</v>
+        <v>300</v>
       </c>
       <c r="I4">
-        <v>216.5446391563535</v>
+        <v>200</v>
       </c>
       <c r="J4">
-        <v>319.0446391563535</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>216.5446391563535</v>
+        <v>137.4641743940584</v>
       </c>
       <c r="L4">
-        <v>114.0446391563535</v>
+        <v>200</v>
       </c>
       <c r="M4">
-        <v>11.54463915635352</v>
+        <v>300</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -3539,19 +3539,19 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>172.1636962890612</v>
+        <v>160.3709594726549</v>
       </c>
       <c r="F5">
         <v>444.93408203125</v>
       </c>
       <c r="G5">
-        <v>607.403564453125</v>
+        <v>598.60107421875</v>
       </c>
       <c r="H5">
-        <v>607.403564453125</v>
+        <v>590.7823638721075</v>
       </c>
       <c r="I5">
-        <v>607.403564453125</v>
+        <v>426.6974896298199</v>
       </c>
       <c r="J5">
         <v>607.403564453125</v>
@@ -3577,40 +3577,40 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D6">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E6">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F6">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G6">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H6">
-        <v>157.5</v>
+        <v>157.6189365547688</v>
       </c>
       <c r="I6">
-        <v>105</v>
+        <v>107.6189365547688</v>
       </c>
       <c r="J6">
-        <v>52.5</v>
+        <v>57.61893655476879</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M6">
-        <v>52.5</v>
+        <v>200</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -3640,10 +3640,10 @@
         <v>538.9549255371094</v>
       </c>
       <c r="J7">
-        <v>415.5396537372076</v>
+        <v>538.9549255371094</v>
       </c>
       <c r="K7">
-        <v>246.0404548486434</v>
+        <v>646.0404548486434</v>
       </c>
       <c r="L7">
         <v>647.10693359375</v>
@@ -3663,40 +3663,40 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="D8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="E8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="F8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="G8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="I8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="J8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="K8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="L8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M8">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="N8">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -3869,7 +3869,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1489.3798828125</v>
       </c>
       <c r="C5">
         <v>1489.3798828125</v>
@@ -4232,19 +4232,19 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>679.3555908203125</v>
+        <v>669.3555908203125</v>
       </c>
       <c r="C4">
-        <v>679.3555908203125</v>
+        <v>669.3555908203125</v>
       </c>
       <c r="D4">
-        <v>679.3555908203125</v>
+        <v>669.3555908203125</v>
       </c>
       <c r="E4">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="F4">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="G4">
         <v>613.7216612131065</v>
@@ -4276,16 +4276,16 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>390</v>
+        <v>398.3353424875409</v>
       </c>
       <c r="D5">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="E5">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="F5">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="G5">
         <v>322.1732093992811</v>
@@ -4314,19 +4314,19 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="C6">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="D6">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="E6">
-        <v>342.83994855536</v>
+        <v>332.83994855536</v>
       </c>
       <c r="F6">
-        <v>71.88788145903436</v>
+        <v>61.88788145903436</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>205.0048828125</v>
+        <v>196.6695403249591</v>
       </c>
       <c r="D8">
-        <v>205.0048828125</v>
+        <v>195.0048828125</v>
       </c>
       <c r="E8">
-        <v>205.0048828125</v>
+        <v>195.0048828125</v>
       </c>
       <c r="F8">
-        <v>66.0810670727692</v>
+        <v>56.0810670727692</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -4437,40 +4437,40 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>14.58984375</v>
+        <v>4.58984375</v>
       </c>
       <c r="C9">
-        <v>28.8421630859375</v>
+        <v>18.8421630859375</v>
       </c>
       <c r="D9">
-        <v>489.9999999999986</v>
+        <v>499.9999999999986</v>
       </c>
       <c r="E9">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F9">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="G9">
-        <v>489.1644287109375</v>
+        <v>493.845718364295</v>
       </c>
       <c r="H9">
-        <v>424.6452250938535</v>
+        <v>227.3945111141949</v>
       </c>
       <c r="I9">
-        <v>533.707114742291</v>
+        <v>314.6624755859375</v>
       </c>
       <c r="J9">
-        <v>81.16866259385353</v>
+        <v>502.0881978315584</v>
       </c>
       <c r="K9">
-        <v>476.338950679791</v>
+        <v>562.2943115234375</v>
       </c>
       <c r="L9">
-        <v>375.4862895469785</v>
+        <v>600</v>
       </c>
       <c r="M9">
-        <v>359.8687744140625</v>
+        <v>259.8687744140625</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4478,40 +4478,40 @@
         <v>7</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="C10">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="D10">
-        <v>590</v>
+        <v>564.3063416644756</v>
       </c>
       <c r="E10">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="F10">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="G10">
-        <v>499.5182800292969</v>
+        <v>499.6372165840656</v>
       </c>
       <c r="H10">
-        <v>444.6519470214844</v>
+        <v>447.2708835762532</v>
       </c>
       <c r="I10">
-        <v>275.2985648700201</v>
+        <v>351.5200046728921</v>
       </c>
       <c r="J10">
-        <v>65.69377516114344</v>
+        <v>565.6937751611434</v>
       </c>
       <c r="K10">
-        <v>158.7471441575038</v>
+        <v>512.8354987240023</v>
       </c>
       <c r="L10">
-        <v>518.577880859375</v>
+        <v>462.0451920229664</v>
       </c>
       <c r="M10">
-        <v>462.0050048828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4519,37 +4519,37 @@
         <v>8</v>
       </c>
       <c r="B11">
-        <v>132.3291056429892</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>4.815673828125</v>
+        <v>231.8013000488281</v>
       </c>
       <c r="D11">
-        <v>242.0553588867188</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>229.2179913082998</v>
       </c>
       <c r="F11">
-        <v>219.8250652824046</v>
+        <v>209.8250652824046</v>
       </c>
       <c r="G11">
-        <v>153.7439982096355</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>590.0000000000002</v>
+        <v>600.0000000000002</v>
       </c>
       <c r="I11">
-        <v>590.0000000000002</v>
+        <v>600.0000000000002</v>
       </c>
       <c r="J11">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="K11">
-        <v>469.4822633190772</v>
+        <v>409.1413879394532</v>
       </c>
       <c r="L11">
-        <v>420.3768920898438</v>
+        <v>410.3768920898438</v>
       </c>
       <c r="M11">
         <v>246.0469784279023</v>
@@ -4639,40 +4639,40 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>-155.5061721151717</v>
+        <v>-146.8287883595099</v>
       </c>
       <c r="C4">
-        <v>-143.8358297135943</v>
+        <v>-134.9606435443464</v>
       </c>
       <c r="D4">
-        <v>233.7777874881626</v>
+        <v>265.7075391456025</v>
       </c>
       <c r="E4">
-        <v>103.0841830055065</v>
+        <v>96.73943591982606</v>
       </c>
       <c r="F4">
-        <v>-118.781698813181</v>
+        <v>-128.8868845737545</v>
       </c>
       <c r="G4">
-        <v>-187.1682599579999</v>
+        <v>-184.9987532566395</v>
       </c>
       <c r="H4">
-        <v>-162.4098802429524</v>
+        <v>-328.1634885616166</v>
       </c>
       <c r="I4">
-        <v>-30.67733524794352</v>
+        <v>-212.4505761209687</v>
       </c>
       <c r="J4">
-        <v>-378.0316532516449</v>
+        <v>-32.84036994615019</v>
       </c>
       <c r="K4">
-        <v>-41.763796452343</v>
+        <v>30.16550339020927</v>
       </c>
       <c r="L4">
-        <v>-117.4079006471524</v>
+        <v>68.60210989742552</v>
       </c>
       <c r="M4">
-        <v>-126.4022274040752</v>
+        <v>-210.7819796221305</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4680,40 +4680,40 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>499.6300406448685</v>
       </c>
       <c r="C5">
-        <v>483.1144920791075</v>
+        <v>499.6300406448685</v>
       </c>
       <c r="D5">
-        <v>483.1144920791075</v>
+        <v>469.9073340366316</v>
       </c>
       <c r="E5">
-        <v>483.1144920791075</v>
+        <v>499.6300406448685</v>
       </c>
       <c r="F5">
-        <v>483.1144920791075</v>
+        <v>499.6300406448685</v>
       </c>
       <c r="G5">
-        <v>409.0246104077681</v>
+        <v>416.0562713826428</v>
       </c>
       <c r="H5">
-        <v>364.0979653174079</v>
+        <v>372.4499495674494</v>
       </c>
       <c r="I5">
-        <v>225.4249598937068</v>
+        <v>292.7165903703357</v>
       </c>
       <c r="J5">
-        <v>53.79256749107611</v>
+        <v>471.0626731271853</v>
       </c>
       <c r="K5">
-        <v>129.9882134214598</v>
+        <v>427.0467017860078</v>
       </c>
       <c r="L5">
-        <v>424.6313381607405</v>
+        <v>384.7527634503346</v>
       </c>
       <c r="M5">
-        <v>378.3073106304501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4721,40 +4721,40 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>108.3561163728734</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-67.73645433949802</v>
+        <v>108.3661656919611</v>
       </c>
       <c r="D6">
-        <v>126.5244438776036</v>
+        <v>-86.73793816777876</v>
       </c>
       <c r="E6">
-        <v>-71.67971165389338</v>
+        <v>104.1357190220562</v>
       </c>
       <c r="F6">
-        <v>13.84601329838986</v>
+        <v>-8.416583487431467</v>
       </c>
       <c r="G6">
-        <v>-48.48991806051303</v>
+        <v>-178.8526818965006</v>
       </c>
       <c r="H6">
-        <v>332.7162469384283</v>
+        <v>345.3754302441718</v>
       </c>
       <c r="I6">
-        <v>340.6521186633016</v>
+        <v>353.5147858594265</v>
       </c>
       <c r="J6">
-        <v>343.2780514359908</v>
+        <v>356.2080502416718</v>
       </c>
       <c r="K6">
-        <v>245.462439786796</v>
+        <v>198.1680752447913</v>
       </c>
       <c r="L6">
-        <v>205.540605499221</v>
+        <v>199.4917881012593</v>
       </c>
       <c r="M6">
-        <v>62.88776358710035</v>
+        <v>62.74909567576557</v>
       </c>
     </row>
   </sheetData>
@@ -4841,40 +4841,40 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>-167.4528923741459</v>
+        <v>-150.6508280584534</v>
       </c>
       <c r="C4">
-        <v>-167.4528923741459</v>
+        <v>-150.6508280584534</v>
       </c>
       <c r="D4">
-        <v>-167.4528923741459</v>
+        <v>-150.6508280584534</v>
       </c>
       <c r="E4">
-        <v>-380.030309073601</v>
+        <v>-402.8906047250424</v>
       </c>
       <c r="F4">
-        <v>-601.8961908922886</v>
+        <v>-628.516925218623</v>
       </c>
       <c r="G4">
-        <v>-587.7147421950361</v>
+        <v>-596.2323471543845</v>
       </c>
       <c r="H4">
-        <v>-510.1255789464021</v>
+        <v>-517.5187032789586</v>
       </c>
       <c r="I4">
-        <v>-467.6970668712111</v>
+        <v>-474.4752852316635</v>
       </c>
       <c r="J4">
-        <v>-444.4956485088821</v>
+        <v>-450.9376144293007</v>
       </c>
       <c r="K4">
-        <v>-431.8082883424486</v>
+        <v>-438.0663794778464</v>
       </c>
       <c r="L4">
-        <v>-424.8703888796223</v>
+        <v>-431.027930747443</v>
       </c>
       <c r="M4">
-        <v>-421.0764988721782</v>
+        <v>-427.1790568268474</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4926,37 +4926,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-71.67971165389338</v>
+        <v>-84.65865591625447</v>
       </c>
       <c r="D6">
-        <v>-71.67971165389338</v>
+        <v>-86.73793816777876</v>
       </c>
       <c r="E6">
-        <v>-71.67971165389338</v>
+        <v>-86.73793816777876</v>
       </c>
       <c r="F6">
-        <v>-166.1551303629077</v>
+        <v>-183.1414266463648</v>
       </c>
       <c r="G6">
-        <v>-174.3813648490881</v>
+        <v>-178.8526818965006</v>
       </c>
       <c r="H6">
-        <v>-150.3982451406794</v>
+        <v>-154.2546104006969</v>
       </c>
       <c r="I6">
-        <v>-142.4623734158061</v>
+        <v>-146.1152547854422</v>
       </c>
       <c r="J6">
-        <v>-139.8364406431168</v>
+        <v>-143.4219904031967</v>
       </c>
       <c r="K6">
-        <v>-138.9675351005698</v>
+        <v>-142.5308052313536</v>
       </c>
       <c r="L6">
-        <v>-138.6800194224378</v>
+        <v>-142.2359173563464</v>
       </c>
       <c r="M6">
-        <v>-138.5848821939084</v>
+        <v>-142.1383407117009</v>
       </c>
     </row>
   </sheetData>
@@ -5084,40 +5084,40 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>-650.5673844532535</v>
+        <v>-650.2808687033219</v>
       </c>
       <c r="C5">
-        <v>-650.5673844532535</v>
+        <v>-650.2808687033219</v>
       </c>
       <c r="D5">
-        <v>-650.5673844532535</v>
+        <v>-650.2808687033219</v>
       </c>
       <c r="E5">
-        <v>-660.7607287528385</v>
+        <v>-680.0519997666265</v>
       </c>
       <c r="F5">
-        <v>-660.7607287528385</v>
+        <v>-680.0519997666265</v>
       </c>
       <c r="G5">
-        <v>-587.7147421950361</v>
+        <v>-596.2323471543845</v>
       </c>
       <c r="H5">
-        <v>-510.1255789464021</v>
+        <v>-517.5187032789586</v>
       </c>
       <c r="I5">
-        <v>-467.6970668712111</v>
+        <v>-474.4752852316635</v>
       </c>
       <c r="J5">
-        <v>-444.4956485088821</v>
+        <v>-450.9376144293007</v>
       </c>
       <c r="K5">
-        <v>-431.8082883424486</v>
+        <v>-438.0663794778464</v>
       </c>
       <c r="L5">
-        <v>-424.8703888796223</v>
+        <v>-431.027930747443</v>
       </c>
       <c r="M5">
-        <v>-421.0764988721782</v>
+        <v>-427.1790568268474</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5128,37 +5128,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>-211.0936921724569</v>
+        <v>-221.1336703970418</v>
       </c>
       <c r="D6">
-        <v>-211.0936921724569</v>
+        <v>-222.0577958421638</v>
       </c>
       <c r="E6">
-        <v>-211.0936921724569</v>
+        <v>-222.0577958421638</v>
       </c>
       <c r="F6">
-        <v>-211.0936921724569</v>
+        <v>-222.0577958421638</v>
       </c>
       <c r="G6">
-        <v>-174.3813648490881</v>
+        <v>-178.8526818965006</v>
       </c>
       <c r="H6">
-        <v>-150.3982451406794</v>
+        <v>-154.2546104006969</v>
       </c>
       <c r="I6">
-        <v>-142.4623734158061</v>
+        <v>-146.1152547854422</v>
       </c>
       <c r="J6">
-        <v>-139.8364406431168</v>
+        <v>-143.4219904031967</v>
       </c>
       <c r="K6">
-        <v>-138.9675351005698</v>
+        <v>-142.5308052313536</v>
       </c>
       <c r="L6">
-        <v>-138.6800194224378</v>
+        <v>-142.2359173563464</v>
       </c>
       <c r="M6">
-        <v>-138.5848821939084</v>
+        <v>-142.1383407117009</v>
       </c>
     </row>
   </sheetData>
